--- a/importação/FORNECEDORES.xlsx
+++ b/importação/FORNECEDORES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gultembergue.carlos\Documents\estoque frota pesada\importação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C895409-970C-4FAD-832F-5E052342DE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F9A736-737E-45AE-8316-FE1BBE5D0841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7239C854-3BCF-4376-970B-B8544BF4DC41}"/>
   </bookViews>
@@ -174,10 +174,10 @@
     <t>FR SUPRIMENTOS</t>
   </si>
   <si>
-    <t>Informações de Contato:</t>
-  </si>
-  <si>
-    <t>Nome do Fornecedor:</t>
+    <t>Nome do Fornecedor</t>
+  </si>
+  <si>
+    <t>Informações de Contato</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
         <v>50</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/importação/FORNECEDORES.xlsx
+++ b/importação/FORNECEDORES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gultembergue.carlos\Documents\estoque frota pesada\importação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F9A736-737E-45AE-8316-FE1BBE5D0841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D876F9-678F-4EDD-AD81-83856AAB1263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7239C854-3BCF-4376-970B-B8544BF4DC41}"/>
   </bookViews>
@@ -174,10 +174,10 @@
     <t>FR SUPRIMENTOS</t>
   </si>
   <si>
-    <t>Nome do Fornecedor</t>
-  </si>
-  <si>
-    <t>Informações de Contato</t>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Contato</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
